--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,18 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/products{pid}/edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/products{pid}/edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/products{pid}/del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/products/add</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,6 +231,22 @@
   </si>
   <si>
     <t>Product ProductDAO.insert(Product product)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/{pid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/{pid}/edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/{pid}/edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/{pid}/del</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,7 +619,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -671,15 +675,15 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -693,26 +697,26 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -723,17 +727,17 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -747,15 +751,15 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -769,17 +773,17 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -793,13 +797,13 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -821,7 +825,7 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -835,7 +839,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -857,10 +861,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -879,10 +883,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -890,10 +894,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -904,7 +908,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,17 @@
   <si>
     <t>/products/{pid}/del</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product ProductDAO.findById(Long productId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product ProductSVC.findById(Long productId)</t>
   </si>
 </sst>
 </file>
@@ -314,7 +325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,6 +345,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -618,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -739,9 +753,15 @@
       <c r="G4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">

--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,6 +259,18 @@
   </si>
   <si>
     <t>Product ProductSVC.findById(Long productId)</t>
+  </si>
+  <si>
+    <t>ProductSVC.update(Long productId, Product product)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductSVC.del(Long productId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductSVC.all()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -632,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -645,8 +657,7 @@
     <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="41" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="51.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -805,9 +816,15 @@
       <c r="G6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="H6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -826,8 +843,12 @@
         <v>47</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -848,8 +869,12 @@
         <v>48</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="I8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">

--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,18 @@
   </si>
   <si>
     <t>ProductSVC.all()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductDAO.update(Long productId, Product product)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductDAO.del(Long productId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductDAO.all()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -823,7 +835,7 @@
         <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -847,7 +859,7 @@
         <v>59</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -873,7 +885,7 @@
         <v>60</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">

--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,14 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/products{pid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/products{pid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/products</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/products?pid=x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,6 +270,58 @@
   </si>
   <si>
     <t>ProductDAO.all()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -343,13 +383,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -373,6 +450,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,321 +746,433 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="10" width="51.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="11" width="51.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>43</v>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="7" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="I11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="I13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Heo\kh\java\myapp3\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\kh\java\myapp3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F138CD0-9369-4806-B78E-E6BA0FDFC199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20280" windowHeight="10725"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/products/add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PATCH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,10 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ProductDAO.all()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Member</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,14 +315,118 @@
   </si>
   <si>
     <t>목록화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/members/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/members</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/members/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/members/{id}/edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/members{id}/edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/members/{id}/del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원등록 정보 (이메일, 비밀번호, 별칭)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberController.joinForm()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberController.join()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberController.findById()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberController.editForm()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberController.edit()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberController.del()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberController.all()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int MemberDAO.insert(Member Member)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member MemberDAO.findById(Long MemberId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int MemberDAO.update(Long MemberId, Member Member)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int MemberDAO.del(Long MemberId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Member&gt; MemberDAO.all()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member MemberSVC.insert(Member Member)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member MemberSVC.findById(Long MemberId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberSVC.update(Long MemberId,Member Member)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberSVC.del(Long MemberId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberSVC.all()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Product&gt; ProductDAO.all()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품관리 다양한  요청방식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,8 +442,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +460,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -445,18 +555,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -465,6 +563,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,28 +852,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="27.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.875" customWidth="1"/>
-    <col min="10" max="11" width="51.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="33">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -799,34 +907,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:11" ht="33">
+      <c r="A3" s="7"/>
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -840,134 +948,134 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="7" t="s">
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="7" t="s">
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:11" ht="33">
+      <c r="A6" s="7"/>
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>55</v>
+      <c r="J6" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="7" t="s">
-        <v>56</v>
+      <c r="J7" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="8"/>
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -982,196 +1090,301 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="7" t="s">
-        <v>57</v>
+      <c r="J8" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="7"/>
+      <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="7"/>
+      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="J12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="7"/>
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="D13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I10" t="s">
+      <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="J14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="7"/>
+      <c r="B15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="I11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8"/>
+      <c r="B16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="D16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="11"/>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="I13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="11"/>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="D20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="11"/>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="7" t="s">
+      <c r="D21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="11"/>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="11"/>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="11"/>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>31</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A18:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\kh\java\myapp3\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Heo\kh\java\myapp3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F138CD0-9369-4806-B78E-E6BA0FDFC199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="107">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,11 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품등록 정보
-(상품명, 수량, 가격)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화면(view)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,11 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품수정 정보
-(상품명, 수량, 가격)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/products</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,178 +152,285 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>itemForm.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductController.addForm()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductController.add()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductController.findById()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductController.editForm()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductController.edit()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductController.del()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductController.all()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product ProductSVC.save(Product product)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product ProductDAO.insert(Product product)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/{pid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/{pid}/edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/{pid}/edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/{pid}/del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product ProductDAO.findById(Long productId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product ProductSVC.findById(Long productId)</t>
+  </si>
+  <si>
+    <t>ProductSVC.update(Long productId, Product product)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductSVC.del(Long productId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductSVC.all()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductDAO.update(Long productId, Product product)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductDAO.del(Long productId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/members/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/members</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/members/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/members/{id}/edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/members{id}/edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/members/{id}/del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원등록 정보 (이메일, 비밀번호, 별칭)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberController.findById()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberController.editForm()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberController.edit()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberController.del()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberController.all()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member MemberDAO.findById(Long MemberId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int MemberDAO.del(Long MemberId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Member&gt; MemberDAO.all()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member MemberSVC.findById(Long MemberId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberSVC.del(Long MemberId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberSVC.all()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Product&gt; ProductDAO.all()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품관리 다양한  요청방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member MemberSVC.insert(Member member)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberSVC.update(Long MemberId, Member member)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int MemberDAO.insert(Member member)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int MemberDAO.update(Long MemberId, Member member)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>editForm.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemForm.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EditForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductController.addForm()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductController.add()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductController.findById()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductController.editForm()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductController.edit()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductController.del()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductController.all()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product ProductSVC.save(Product product)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product ProductDAO.insert(Product product)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/products/{pid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/products/{pid}/edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/products/{pid}/edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/products/{pid}/del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product ProductDAO.findById(Long productId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product ProductSVC.findById(Long productId)</t>
-  </si>
-  <si>
-    <t>ProductSVC.update(Long productId, Product product)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductSVC.del(Long productId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductSVC.all()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductDAO.update(Long productId, Product product)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductDAO.del(Long productId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈퇴처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목록화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/members/add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/members</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/members/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/members/{id}/edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/members{id}/edit</t>
+  </si>
+  <si>
+    <t>editForm.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberController.addForm()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberController.add()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addForm.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberForm.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -342,90 +438,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원등록 정보 (이메일, 비밀번호, 별칭)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberController.joinForm()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberController.join()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberController.findById()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberController.editForm()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberController.edit()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberController.del()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberController.all()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int MemberDAO.insert(Member Member)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member MemberDAO.findById(Long MemberId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int MemberDAO.update(Long MemberId, Member Member)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int MemberDAO.del(Long MemberId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;Member&gt; MemberDAO.all()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member MemberSVC.insert(Member Member)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member MemberSVC.findById(Long MemberId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberSVC.update(Long MemberId,Member Member)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberSVC.del(Long MemberId)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberSVC.all()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;Product&gt; ProductDAO.all()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품관리 다양한  요청방식</t>
+    <t>MemberForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delForm.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품등록 정보 (상품명, 수량, 가격)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품수정 정보 (상품명, 수량, 가격)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -470,7 +502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -530,13 +562,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -555,6 +613,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -564,14 +628,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,11 +919,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -864,8 +931,8 @@
     <col min="2" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.875" customWidth="1"/>
     <col min="10" max="10" width="51.375" bestFit="1" customWidth="1"/>
@@ -874,7 +941,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="33">
       <c r="A1" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -889,16 +956,16 @@
         <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>3</v>
@@ -908,8 +975,8 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="6" t="s">
-        <v>63</v>
+      <c r="A2" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -918,22 +985,22 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="33">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:11">
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -941,30 +1008,30 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="7"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -972,30 +1039,30 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="7"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1003,22 +1070,22 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="33">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:11">
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1026,30 +1093,30 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="7"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1057,24 +1124,24 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="8"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1082,309 +1149,358 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="6" t="s">
-        <v>64</v>
+      <c r="A10" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="I10" s="13"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="7"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="7"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="H12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="7"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="I13" s="13"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="7"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="9"/>
+      <c r="B15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="9"/>
+      <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="10"/>
+      <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K14" s="1" t="s">
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="11" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="7"/>
-      <c r="B15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="8"/>
-      <c r="B16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="11"/>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="11"/>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="11"/>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="11"/>
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="11"/>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="11"/>
       <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="11"/>
+      <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>30</v>
+      <c r="D25" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A19:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="108">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,6 +451,10 @@
   </si>
   <si>
     <t>상품수정 정보 (상품명, 수량, 가격)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,6 +623,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -630,15 +643,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,7 +927,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -975,7 +979,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1000,7 +1004,7 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="9"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,7 +1035,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="9"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1062,7 +1066,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="9"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1085,7 +1089,7 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="9"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,7 +1120,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="9"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1141,7 +1145,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="10"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1181,7 +1185,7 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1193,7 +1197,7 @@
       <c r="D10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="1" t="s">
         <v>97</v>
       </c>
@@ -1201,12 +1205,12 @@
       <c r="H10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="9"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
         <v>63</v>
       </c>
@@ -1216,7 +1220,7 @@
       <c r="D11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="8" t="s">
         <v>75</v>
       </c>
       <c r="F11" s="1"/>
@@ -1226,7 +1230,7 @@
       <c r="H11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="9" t="s">
         <v>56</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -1237,7 +1241,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="9"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
         <v>64</v>
       </c>
@@ -1247,7 +1251,7 @@
       <c r="D12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="1" t="s">
         <v>98</v>
       </c>
@@ -1257,7 +1261,7 @@
       <c r="H12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="9" t="s">
         <v>57</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -1268,7 +1272,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="9"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
         <v>65</v>
       </c>
@@ -1278,7 +1282,7 @@
       <c r="D13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="1" t="s">
         <v>93</v>
       </c>
@@ -1286,12 +1290,12 @@
       <c r="H13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="9"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="1" t="s">
         <v>66</v>
       </c>
@@ -1301,7 +1305,7 @@
       <c r="D14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="8" t="s">
         <v>75</v>
       </c>
       <c r="F14" s="1"/>
@@ -1311,7 +1315,7 @@
       <c r="H14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="9" t="s">
         <v>58</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -1322,7 +1326,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="9"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="1" t="s">
         <v>99</v>
       </c>
@@ -1332,18 +1336,20 @@
       <c r="D15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="F15" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="13"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="9"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="1" t="s">
         <v>67</v>
       </c>
@@ -1353,13 +1359,13 @@
       <c r="D16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="13"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="1" t="s">
         <v>85</v>
       </c>
@@ -1368,7 +1374,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="10"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="1" t="s">
         <v>68</v>
       </c>
@@ -1378,7 +1384,7 @@
       <c r="D17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1386,7 +1392,7 @@
       <c r="H17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="13"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="1" t="s">
         <v>86</v>
       </c>
@@ -1400,15 +1406,15 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="14" t="s">
         <v>88</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1422,7 +1428,7 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="11"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1434,7 +1440,7 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="11"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1449,7 +1455,7 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="11"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1461,7 +1467,7 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="11"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
@@ -1473,7 +1479,7 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="11"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
@@ -1485,7 +1491,7 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="11"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>

--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="139">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>all.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>form 객체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,14 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>addForm.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemForm.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AddForm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -399,13 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>editForm.html</t>
-  </si>
-  <si>
-    <t>editForm.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MemberController.addForm()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,14 +395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>addForm.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberForm.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>탈퇴화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -434,18 +407,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/members/{id}/del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MemberForm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>delForm.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품등록 정보 (상품명, 수량, 가격)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,6 +421,144 @@
   <si>
     <t>비밀번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리
+(admin)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int AdminMemberDAO.insert(Member member)</t>
+  </si>
+  <si>
+    <t>Member AdminMemberDAO.findById(Long MemberId)</t>
+  </si>
+  <si>
+    <t>int AdminMemberDAO.update(Long MemberId, Member member)</t>
+  </si>
+  <si>
+    <t>int AdminMemberDAO.del(Long MemberId)</t>
+  </si>
+  <si>
+    <t>List&lt;Member&gt; AdminMemberDAO.all()</t>
+  </si>
+  <si>
+    <t>/admin/members/add</t>
+  </si>
+  <si>
+    <t>/admin/members/{id}</t>
+  </si>
+  <si>
+    <t>/admin/members/{id}/edit</t>
+  </si>
+  <si>
+    <t>/admin/members{id}/edit</t>
+  </si>
+  <si>
+    <t>/admin/members/{id}/del</t>
+  </si>
+  <si>
+    <t>/admin/members</t>
+  </si>
+  <si>
+    <t>Member AdminMemberSVC.insert(Member member)</t>
+  </si>
+  <si>
+    <t>Member AdminMemberSVC.findById(Long MemberId)</t>
+  </si>
+  <si>
+    <t>AdminMemberSVC.update(Long MemberId, Member member)</t>
+  </si>
+  <si>
+    <t>AdminMemberSVC.del(Long MemberId)</t>
+  </si>
+  <si>
+    <t>AdminMemberSVC.all()</t>
+  </si>
+  <si>
+    <t>product/addForm.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product/itemForm.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product/editForm.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product/all.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/member/addForm.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/member/memberForm.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/member/editForm.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/member/all.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/member/delForm.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/addForm.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/memberForm.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/editForm.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/delForm.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/all.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminMemberController.addForm()</t>
+  </si>
+  <si>
+    <t>AdminMemberController.add()</t>
+  </si>
+  <si>
+    <t>AdminMemberController.findById()</t>
+  </si>
+  <si>
+    <t>AdminMemberController.editForm()</t>
+  </si>
+  <si>
+    <t>AdminMemberController.edit()</t>
+  </si>
+  <si>
+    <t>AdminMemberController.del()</t>
+  </si>
+  <si>
+    <t>AdminMemberController.all()</t>
   </si>
 </sst>
 </file>
@@ -598,7 +701,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -642,6 +745,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -924,20 +1030,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.875" customWidth="1"/>
     <col min="10" max="10" width="51.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="57.375" bestFit="1" customWidth="1"/>
@@ -945,7 +1051,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="33">
       <c r="A1" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -963,13 +1069,13 @@
         <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>3</v>
@@ -980,7 +1086,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -989,15 +1095,15 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1012,26 +1118,26 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1043,26 +1149,26 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1074,15 +1180,15 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1097,26 +1203,26 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1128,20 +1234,20 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1153,22 +1259,22 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1185,25 +1291,25 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="11" t="s">
-        <v>61</v>
+      <c r="A10" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="1" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="1"/>
@@ -1212,83 +1318,83 @@
     <row r="11" spans="1:11">
       <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="1" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="1" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="1"/>
@@ -1297,50 +1403,50 @@
     <row r="14" spans="1:11">
       <c r="A14" s="12"/>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="12"/>
       <c r="B15" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
@@ -1351,53 +1457,53 @@
     <row r="16" spans="1:11">
       <c r="A16" s="12"/>
       <c r="B16" s="1" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="1" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="13"/>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="1" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="1" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1414,99 +1520,316 @@
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="14" t="s">
-        <v>88</v>
+      <c r="A19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="14"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>22</v>
+        <v>66</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="14"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="14"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="14"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="12"/>
+      <c r="B24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="12"/>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="13"/>
+      <c r="B26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="14"/>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="14"/>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="14"/>
+      <c r="B41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="14"/>
+      <c r="B42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="14"/>
+      <c r="B43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="14"/>
-      <c r="B24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="14"/>
-      <c r="B25" s="1" t="s">
+      <c r="D43" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="14"/>
+      <c r="B44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>28</v>
+      <c r="D44" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="A19:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="153">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -559,6 +559,62 @@
   </si>
   <si>
     <t>AdminMemberController.all()</t>
+  </si>
+  <si>
+    <t>등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PATCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품관리
+(REST)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/{id}</t>
+  </si>
+  <si>
+    <t>/products/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -701,7 +757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,11 +800,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1032,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1291,7 +1350,7 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1735,8 +1794,118 @@
         <v>80</v>
       </c>
     </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="16"/>
+      <c r="B29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="16"/>
+      <c r="B30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="16"/>
+      <c r="B31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="16"/>
+      <c r="B32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1750,7 +1919,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
@@ -1762,7 +1931,7 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="14"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="1" t="s">
         <v>12</v>
       </c>
@@ -1777,7 +1946,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="14"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="1" t="s">
         <v>13</v>
       </c>
@@ -1789,7 +1958,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="14"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="1" t="s">
         <v>14</v>
       </c>
@@ -1801,7 +1970,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="14"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="1" t="s">
         <v>15</v>
       </c>
@@ -1813,7 +1982,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="14"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="1" t="s">
         <v>16</v>
       </c>
@@ -1825,11 +1994,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="A38:A44"/>
     <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A28:A32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="163">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,14 +327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MemberController.edit()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberController.del()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MemberController.all()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,18 +594,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/products/{id}</t>
-  </si>
-  <si>
-    <t>/products/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/products</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/products</t>
+    <t>/api/products</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/products/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/products/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명, 수량, 단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품아이디, 상품명, 수량, 단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품아이디, 상품명, 수량, 단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApiProductController.add()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApiProductController.findById()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberController.edit()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApiProductController.edit()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberController.del()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApiProductController.del()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApiProductController.findAll()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddReq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemReq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditReq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1091,8 +1132,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1158,7 +1201,7 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
@@ -1180,7 +1223,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
@@ -1212,7 +1255,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>30</v>
@@ -1243,7 +1286,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
@@ -1265,7 +1308,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
@@ -1322,7 +1365,7 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
@@ -1333,7 +1376,7 @@
         <v>50</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1351,7 +1394,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>59</v>
@@ -1360,15 +1403,15 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="1"/>
@@ -1383,7 +1426,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>72</v>
@@ -1393,16 +1436,16 @@
         <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>53</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1414,26 +1457,26 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>54</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1445,15 +1488,15 @@
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="1"/>
@@ -1468,7 +1511,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>72</v>
@@ -1478,34 +1521,34 @@
         <v>31</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>55</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="12"/>
       <c r="B15" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
@@ -1516,26 +1559,26 @@
     <row r="16" spans="1:11">
       <c r="A16" s="12"/>
       <c r="B16" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1547,22 +1590,22 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1593,11 +1636,11 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="1"/>
@@ -1622,16 +1665,16 @@
         <v>29</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>53</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1647,10 +1690,10 @@
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>73</v>
@@ -1659,10 +1702,10 @@
         <v>54</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1678,7 +1721,7 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
@@ -1707,34 +1750,34 @@
         <v>31</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>55</v>
       </c>
       <c r="J23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="12"/>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="1"/>
@@ -1748,7 +1791,7 @@
         <v>64</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>71</v>
@@ -1757,14 +1800,14 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1780,18 +1823,18 @@
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1809,70 +1852,100 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="16"/>
       <c r="B29" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E29" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="16"/>
       <c r="B30" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="16"/>
       <c r="B31" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>149</v>
@@ -1880,33 +1953,47 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="16"/>
       <c r="B32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E32" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>7</v>
@@ -2003,5 +2090,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="187">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -655,6 +655,103 @@
   </si>
   <si>
     <t>EditReq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인
+로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디, 비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 전 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 후 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/beforeLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/afterLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeController.beforeLogin()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeController.afterLogin()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginMember.MemberSVC.login(String email, String pw)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean MemberDAO.isMember(String email, String pw)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeController.loginForm()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeController.login()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeController.logout()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -798,7 +895,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -848,6 +945,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1130,12 +1257,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1991,100 +2118,355 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="15" t="s">
+    <row r="33" spans="1:11">
+      <c r="A33" s="21"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="12"/>
+      <c r="B35" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="13"/>
+      <c r="B36" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="22"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="16"/>
+      <c r="B39" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="20"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="20"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="20"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="20"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="17"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="26"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="26"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="26"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="26"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="15"/>
-      <c r="B39" s="1" t="s">
+    <row r="51" spans="1:11">
+      <c r="A51" s="15"/>
+      <c r="B51" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="15"/>
-      <c r="B40" s="1" t="s">
+    <row r="52" spans="1:11">
+      <c r="A52" s="15"/>
+      <c r="B52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="15"/>
-      <c r="B41" s="1" t="s">
+    <row r="53" spans="1:11">
+      <c r="A53" s="15"/>
+      <c r="B53" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="15"/>
-      <c r="B42" s="1" t="s">
+    <row r="54" spans="1:11">
+      <c r="A54" s="15"/>
+      <c r="B54" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="15"/>
-      <c r="B43" s="1" t="s">
+    <row r="55" spans="1:11">
+      <c r="A55" s="15"/>
+      <c r="B55" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="15"/>
-      <c r="B44" s="1" t="s">
+    <row r="56" spans="1:11">
+      <c r="A56" s="15"/>
+      <c r="B56" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A38:A39"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A38:A44"/>
     <mergeCell ref="A19:A26"/>
     <mergeCell ref="A28:A32"/>
   </mergeCells>
